--- a/data/city_permits/raw/city_2014.xlsx
+++ b/data/city_permits/raw/city_2014.xlsx
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c s="2" r="H1">
-        <v>42549</v>
+        <v>42626</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c s="5" t="inlineStr" r="E87">
         <is>
-          <t xml:space="preserve">4</t>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c s="7" t="str" r="F87"/>
@@ -3650,7 +3650,7 @@
       </c>
       <c s="5" t="inlineStr" r="E88">
         <is>
-          <t xml:space="preserve">4</t>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c s="7" t="str" r="F88"/>
@@ -3692,7 +3692,7 @@
       </c>
       <c s="5" t="inlineStr" r="E89">
         <is>
-          <t xml:space="preserve">4</t>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c s="7" t="str" r="F89"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c s="5" t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">4</t>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c s="7" t="str" r="F90"/>
@@ -3776,7 +3776,7 @@
       </c>
       <c s="5" t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">4</t>
+          <t xml:space="preserve">0</t>
         </is>
       </c>
       <c s="7" t="str" r="F91"/>
